--- a/medicine/Enfance/Anne_Tyler/Anne_Tyler.xlsx
+++ b/medicine/Enfance/Anne_Tyler/Anne_Tyler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Tyler, née le 25 octobre 1941 à Minneapolis, dans le Minnesota, est une femme de lettres américaine.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est l'aînée d'une famille de quatre enfants dont les parents sont des quakers pacifistes qui déménagent fréquemment avant de s'installer dans une communauté isolée de Raleigh en Caroline du Nord.
 À l'âge de 16 ans, elle décroche une bourse d'études pour s'inscrire à l'Université Duke. Pendant ses années universitaires, elle s'intéresse à la peinture, aux arts visuels, au théâtre et suit des cours de littérature russe jusqu'à l'obtention de son diplôme en 1961. Elle poursuit son cheminement à l'université Columbia en études slaves, ce qui l'oblige à s'installer à New York, ville où elle ne se sent pas à l'aise. Après un an, elle abandonne sa maîtrise et retourne à Durham en Caroline du Nord pour y travailler un temps comme bibliothécaire à l'université Duke.
 En 1963, elle épouse Taghi Modarressi (mort en 1997), écrivain de langue persane et psychiatre pour enfants d'origine iranienne avec qui elle a deux filles et entame sa carrière d'écrivain en publiant des nouvelles, puis de If Morning Ever Comes (1964), son premier roman, suivi de The Tin Can Tree (1965). Pendant cette période, elle déménage avec sa famille à Montréal, au Canada. Pour élever ses enfants, elle délaisse le roman, mais continue de publier des nouvelles, outre des critiques littéraires et des articles, pour The New Yorker, The Saturday Evening Post, Redbook, McCall's (en) et Harper's Magazine. Malgré la qualité de ses nouvelles, elle s'est toujours refusée à les réunir en recueils.
 En 1965, elle rentre aux États-Unis avec sa famille et s'installe à Baltimore où son mari décroche un poste à la faculté de médecine de l'université du Maryland.
 Elle revient au roman à partir de 1970. Elle est lauréate du National Book Critics Circle Award en 1985 pour son roman Le Voyageur malgré lui (The Accidental Tourist) et du Prix Pulitzer de la fiction en 1989 pour son roman Leçons de conduite (Breathing Lessons). Attachés à la description de l'Américain moyen et abordant souvent les détails qui vont chavirer les relations familiales ou amoureuses, de même que le thème de l'absence et du deuil, ses romans évoquent à la fois John Updike, Eudora Welty et même Jane Austen.
-En janvier 2012, elle reçoit le Sunday Times Award for Literary Excellence[1].
+En janvier 2012, elle reçoit le Sunday Times Award for Literary Excellence.
 La romancière réside encore aujourd'hui à Baltimore, ville qui sert de cadre à la plupart de ses récits.
 </t>
         </is>
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-If Morning Ever Comes (1964)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>If Morning Ever Comes (1964)
 The Tin Can Tree (1965)
 A Slipping-Down Life (1970)
 The Clock Winder (1972)
@@ -574,12 +593,80 @@
 Vinegar Girl (2016) Publié en français sous le titre Vinegar Girl, traduit par Cyrielle Ayakatsikas, Paris, Phébus, coll. « Littérature étrangère », 2018  (ISBN 978-2-7529-1142-1) ; réédition, Paris, 10/18, coll. « Littérature étrangère » no 5436, 2019  (ISBN 978-2-264-07422-5)
 Clock Dance (2018) Publié en français sous le titre La Danse du temps, traduit par Cyrielle Ayakatsikas, Paris, Phébus, coll. « Littérature étrangère », 2019  (ISBN 978-2-7529-1167-4) ; réédition, Paris, 10/18, coll. « Littérature étrangère » no 5533, 2020  (ISBN 978-2-264-07612-0)
 Redhead by the Side of the Road (2020) Publié en français sous le titre Un Garçon sur le pas de la porte, traduit par Cyrielle Ayakatsikas, Paris, Phébus, coll. « Littérature étrangère », 2020  (ISBN 978-2752912213)
-French braid (2022)  Publié en français sous le titre Nos tendres cruautés , traduit par Cyrielle Ayakatsilas, Paris, Phébus, coll. « Littérature étrangère » 2022  (ISBN 9782752912671)
-Littérature d'enfance et de jeunesse
-Tumble Tower (1993)
-Timothy Tugbottom Says No! (2005)
-Nouvelles
-A Street of Bugles (1963)
+French braid (2022)  Publié en français sous le titre Nos tendres cruautés , traduit par Cyrielle Ayakatsilas, Paris, Phébus, coll. « Littérature étrangère » 2022  (ISBN 9782752912671)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Tyler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Tyler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tumble Tower (1993)
+Timothy Tugbottom Says No! (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Tyler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Tyler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A Street of Bugles (1963)
 Dry Water (1964)
 I'm Not Going to Ask You Again (1965)
 As the Earth Gets Old (1966)
@@ -607,33 +694,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anne_Tyler</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne_Tyler</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1980 : Prix Janet Heidinger Kafka pour l'ouvrage Morgan’s Passing[2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1980 : Prix Janet Heidinger Kafka pour l'ouvrage Morgan’s Passing</t>
         </is>
       </c>
     </row>
